--- a/optimization/Production-Mix-in-Python using xlSlim.xlsx
+++ b/optimization/Production-Mix-in-Python using xlSlim.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="202300"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D48D4C4-905B-4800-92C7-AEBD9462731E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42BAC171-3672-469F-92BD-6D11958017EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" activeTab="1" xr2:uid="{324EC751-9C60-40DD-8432-DBCA825DD949}"/>
   </bookViews>
@@ -54,6 +54,7 @@
     <definedName name="vSegment">#REF!</definedName>
     <definedName name="vx">#REF!</definedName>
     <definedName name="vy">#REF!</definedName>
+    <definedName name="XLSLIM_RUN_AT_START">'Model 1'!$B$4:$B$5</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -73,7 +74,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -1682,7 +1683,7 @@
   <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.6" zeroHeight="1" x14ac:dyDescent="0.4"/>
@@ -1733,7 +1734,7 @@
       </c>
       <c r="B4" s="11" t="str" cm="1">
         <f t="array" ref="B4">_xll.WorkbookLocation() &amp; "\prod_mix_model.py"</f>
-        <v>C:\Users\russe\Downloads\prod_mix_model.py</v>
+        <v>D:\github\xlslim-code-samples\optimization\prod_mix_model.py</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.4">
@@ -1742,7 +1743,7 @@
       </c>
       <c r="B5" s="13" t="str" cm="1">
         <f t="array" ref="B5">_xll.RegisterPyModule(B4,B3)</f>
-        <v>Registered C:\Users\russe\Downloads\prod_mix_model.py</v>
+        <v>Registered D:\github\xlslim-code-samples\optimization\prod_mix_model.py</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.4"/>
@@ -1795,7 +1796,7 @@
       </c>
       <c r="H11" s="9" t="str" cm="1">
         <f t="array" ref="H11">_xll.scipy_optimise(Engine,TimeLimit,Margin,Constraints,rhs,VarBounds)</f>
-        <v>[Production-Mix-in-Python using xlSlim.xlsx]Model 1$H$11/977F14D@1</v>
+        <v>[Production-Mix-in-Python using xlSlim.xlsx]Model 1$H$11/B1FF9145@1</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.4">
@@ -1898,11 +1899,11 @@
         <v>23</v>
       </c>
       <c r="H19" s="12" cm="1">
-        <f t="array" ref="H19">_xll.extract_x_values(H11,0)</f>
+        <f t="array" ref="H19">_xll.report_x_values(H11,0)</f>
         <v>6.4102564102564106</v>
       </c>
       <c r="I19" s="12" cm="1">
-        <f t="array" ref="I19">_xll.extract_x_values(H11,1)</f>
+        <f t="array" ref="I19">_xll.report_x_values(H11,1)</f>
         <v>12.820512820512821</v>
       </c>
     </row>
